--- a/data/trans_dic/P1803_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.03878606934903239</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06032854310833351</v>
+        <v>0.06032854310833349</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.03586641040887047</v>
@@ -624,7 +624,7 @@
         <v>0.03732836413362142</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.07337480132198418</v>
+        <v>0.07337480132198421</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02585213911065729</v>
+        <v>0.02507097318147816</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04261610751021431</v>
+        <v>0.04260985024141775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02370561599039234</v>
+        <v>0.02369443497205264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07142643566816761</v>
+        <v>0.07010841219110492</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02821253751138415</v>
+        <v>0.02799960221862932</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06119081280808374</v>
+        <v>0.06059179481344282</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05623512499479241</v>
+        <v>0.05391372553954948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08097321607745869</v>
+        <v>0.08190829223950519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0521639290008438</v>
+        <v>0.05024402112188649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1064553437980259</v>
+        <v>0.1037821738557714</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04871012902955015</v>
+        <v>0.04863238491248056</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08749310077686914</v>
+        <v>0.08646907185279548</v>
       </c>
     </row>
     <row r="7">
@@ -694,13 +694,13 @@
         <v>0.0425728228190392</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06908041459065722</v>
+        <v>0.06908041459065721</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04732290587416958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08788261394867938</v>
+        <v>0.08788261394867937</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04497141762629366</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03165256397096859</v>
+        <v>0.0309422063063431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05431953967900822</v>
+        <v>0.05365426743702138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03636612428620932</v>
+        <v>0.03384096311515446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0743432898761781</v>
+        <v>0.07405941500797254</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03567006633956066</v>
+        <v>0.0355746264575946</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06841763976873921</v>
+        <v>0.06755749016158991</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05712609224494398</v>
+        <v>0.05841092814365662</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09163375686978019</v>
+        <v>0.09138101821078227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06447354151861573</v>
+        <v>0.06159980110384009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1041277403820795</v>
+        <v>0.1043637809953265</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05398794999637901</v>
+        <v>0.05443553346041297</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09371759021375345</v>
+        <v>0.09310550543279185</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.03516753647327928</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.06850584093239684</v>
+        <v>0.06850584093239685</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04989690993696784</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02325079650434042</v>
+        <v>0.02278017552117143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05115072546930258</v>
+        <v>0.05240492854926643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03565437985843679</v>
+        <v>0.03554152621383272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08035707060809033</v>
+        <v>0.08034370312588286</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03316727729828966</v>
+        <v>0.03299468043222494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07005654030100794</v>
+        <v>0.07054778199573031</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05102046383968078</v>
+        <v>0.05065507185247221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0905043364561503</v>
+        <v>0.09474967225257869</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06658616154901596</v>
+        <v>0.06707982035151047</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1162302901589583</v>
+        <v>0.1156903126263658</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05377394398212804</v>
+        <v>0.05374749624187229</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09857750445776094</v>
+        <v>0.09714890342900036</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04800075335738664</v>
+        <v>0.04823919243799238</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09409734645461436</v>
+        <v>0.09423619929391557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06325397444710844</v>
+        <v>0.0623862285725113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1051084376679114</v>
+        <v>0.1060503946547754</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06051369169659685</v>
+        <v>0.05998253874847343</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1054397396923793</v>
+        <v>0.1047674249339536</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08233718209779298</v>
+        <v>0.08030073823954423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1368485806815689</v>
+        <v>0.1366009725931784</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1007024036668939</v>
+        <v>0.09817903054567809</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1385432598095542</v>
+        <v>0.1376947923491878</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08487660460010639</v>
+        <v>0.08526102047583022</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.131527665791372</v>
+        <v>0.1318650328131337</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.05061491129271722</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17445</v>
+        <v>16918</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29435</v>
+        <v>29431</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15950</v>
+        <v>15943</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52325</v>
+        <v>51360</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38020</v>
+        <v>37733</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87092</v>
+        <v>86239</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37947</v>
+        <v>36381</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55929</v>
+        <v>56575</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35098</v>
+        <v>33806</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>77986</v>
+        <v>76028</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>65644</v>
+        <v>65539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124528</v>
+        <v>123070</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32363</v>
+        <v>31636</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56977</v>
+        <v>56279</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37927</v>
+        <v>35293</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>79610</v>
+        <v>79306</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>73671</v>
+        <v>73474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>145029</v>
+        <v>143205</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58407</v>
+        <v>59721</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>96116</v>
+        <v>95851</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67240</v>
+        <v>64243</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>111504</v>
+        <v>111757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>111504</v>
+        <v>112428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>198658</v>
+        <v>197361</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17660</v>
+        <v>17303</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41078</v>
+        <v>42085</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27989</v>
+        <v>27900</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65223</v>
+        <v>65212</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>51229</v>
+        <v>50962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>113123</v>
+        <v>113916</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38753</v>
+        <v>38475</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72682</v>
+        <v>76091</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52271</v>
+        <v>52658</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>94340</v>
+        <v>93902</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>83057</v>
+        <v>83016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>159177</v>
+        <v>156870</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45004</v>
+        <v>45227</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>93162</v>
+        <v>93300</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66023</v>
+        <v>65117</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>117549</v>
+        <v>118602</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>119899</v>
+        <v>118846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>222311</v>
+        <v>220894</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77197</v>
+        <v>75287</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>135489</v>
+        <v>135243</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105111</v>
+        <v>102477</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>154941</v>
+        <v>153992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>168170</v>
+        <v>168932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>277315</v>
+        <v>278027</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
     </row>
     <row r="24">
